--- a/includes/worklog_evaluation/May-2022/Charles_worklog.xlsx
+++ b/includes/worklog_evaluation/May-2022/Charles_worklog.xlsx
@@ -80,7 +80,7 @@
     <t>Codage( Create a post type  )</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>YES</t>
   </si>
   <si>
     <t xml:space="preserve">MONTH : </t>
@@ -1157,10 +1157,7 @@
       <c r="K5" s="26">
         <v>15</v>
       </c>
-      <c r="L5">
-        <f>(G5+H5)/2</f>
-        <v>30</v>
-      </c>
+      <c r="L5"/>
     </row>
     <row r="6" spans="1:12" customHeight="1" ht="24.75">
       <c r="A6" s="1"/>
